--- a/metrics/oops/pitfalls.xlsx
+++ b/metrics/oops/pitfalls.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanm\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanm\OntoGenixLLMExperiments\metrics\oops\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9148F87-B43E-429F-96CC-63AC4B01EDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A51F05-A76F-49CE-B1D8-68DA7F635491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base_methods" sheetId="1" r:id="rId1"/>
     <sheet name="FT_methods" sheetId="3" r:id="rId2"/>
     <sheet name="base_db" sheetId="2" r:id="rId3"/>
     <sheet name="FT_db" sheetId="4" r:id="rId4"/>
+    <sheet name="summary" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="60">
   <si>
     <t>Method</t>
   </si>
@@ -127,6 +128,87 @@
   </si>
   <si>
     <t>Llama-2-7b</t>
+  </si>
+  <si>
+    <t>Type of model</t>
+  </si>
+  <si>
+    <t>Pitfall Severity</t>
+  </si>
+  <si>
+    <t>Pitfall Type</t>
+  </si>
+  <si>
+    <t>Rate by ontology</t>
+  </si>
+  <si>
+    <t>Rate by severity</t>
+  </si>
+  <si>
+    <t>Base Model</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>P08</t>
+  </si>
+  <si>
+    <t>FT-Model</t>
+  </si>
+  <si>
+    <t>P13</t>
+  </si>
+  <si>
+    <t>P22</t>
+  </si>
+  <si>
+    <t>P04</t>
+  </si>
+  <si>
+    <t>P07</t>
+  </si>
+  <si>
+    <t>Important</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>P38</t>
+  </si>
+  <si>
+    <t>P11</t>
+  </si>
+  <si>
+    <t>P30</t>
+  </si>
+  <si>
+    <t>P34</t>
+  </si>
+  <si>
+    <t>P35</t>
+  </si>
+  <si>
+    <t>P24</t>
+  </si>
+  <si>
+    <t>P12</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>P19</t>
+  </si>
+  <si>
+    <t>P39</t>
+  </si>
+  <si>
+    <t>P06</t>
+  </si>
+  <si>
+    <t>P31</t>
   </si>
 </sst>
 </file>
@@ -150,7 +232,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -158,14 +240,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,9 +553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -573,7 +675,7 @@
         <v>4</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -1414,4 +1516,426 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD8A90CC-5FFB-4234-AED9-13C4347E1EDB}">
+  <dimension ref="A1:K18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="4">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E2" s="2">
+        <v>33.51</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="4">
+        <v>28.5</v>
+      </c>
+      <c r="K2" s="2">
+        <v>45.38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="4">
+        <v>16.16</v>
+      </c>
+      <c r="E3" s="2">
+        <v>28.65</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="4">
+        <v>24.15</v>
+      </c>
+      <c r="K3" s="2">
+        <v>38.46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="4">
+        <v>10.37</v>
+      </c>
+      <c r="E4" s="2">
+        <v>18.38</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="4">
+        <v>7.25</v>
+      </c>
+      <c r="K4" s="2">
+        <v>11.54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="4">
+        <v>9.76</v>
+      </c>
+      <c r="E5" s="2">
+        <v>17.3</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="4">
+        <v>2.42</v>
+      </c>
+      <c r="K5" s="2">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1.22</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2.16</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="4">
+        <v>17.68</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45.31</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="4">
+        <v>28.5</v>
+      </c>
+      <c r="K7" s="2">
+        <v>83.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="4">
+        <v>15.85</v>
+      </c>
+      <c r="E8" s="2">
+        <v>40.619999999999997</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="K8" s="2">
+        <v>8.4499999999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3.05</v>
+      </c>
+      <c r="E9" s="2">
+        <v>7.81</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1.45</v>
+      </c>
+      <c r="K9" s="2">
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2.34</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.97</v>
+      </c>
+      <c r="K10" s="2">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1.56</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="K12" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3.35</v>
+      </c>
+      <c r="E15" s="2">
+        <v>73.33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.61</v>
+      </c>
+      <c r="E16" s="2">
+        <v>13.33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E17" s="2">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E18" s="2">
+        <v>6.67</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="G2:G12"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="B7:B14"/>
+    <mergeCell ref="H7:H11"/>
+    <mergeCell ref="B15:B18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>